--- a/Accuracy_verification/Table_Accuracy.xlsx
+++ b/Accuracy_verification/Table_Accuracy.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="실측점" sheetId="2" r:id="rId1"/>
     <sheet name="fromBBA" sheetId="1" r:id="rId2"/>
     <sheet name="fromAR" sheetId="3" r:id="rId3"/>
-    <sheet name="fromAR_azi_보정" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -179,13 +178,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,6 +291,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -960,21 +1061,21 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>205154.18102760799</v>
       </c>
       <c r="D2" s="2">
         <v>553721.16587066196</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>78.773017243140799</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <f>C2-VLOOKUP($B2,실측점!$A$2:$D$30,2,0)</f>
         <v>-4.1723920148797333E-3</v>
       </c>
@@ -993,21 +1094,21 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8">
         <v>15</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>205154.14776546499</v>
       </c>
       <c r="D3" s="5">
         <v>553720.66903994605</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>78.772677393292199</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <f>C3-VLOOKUP($B3,실측점!$A$2:$D$30,2,0)</f>
         <v>-4.334535013185814E-3</v>
       </c>
@@ -1020,27 +1121,27 @@
         <v>2.3897393292202196E-2</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I10" si="0">SQRT(SUMSQ(F3:H3))</f>
+        <f t="shared" ref="I3:I66" si="0">SQRT(SUMSQ(F3:H3))</f>
         <v>2.5264915409043562E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="8">
         <v>16</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>205154.120676511</v>
       </c>
       <c r="D4" s="5">
         <v>553720.26509985595</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>78.780422909046095</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <f>C4-VLOOKUP($B4,실측점!$A$2:$D$30,2,0)</f>
         <v>-9.2348901671357453E-4</v>
       </c>
@@ -1059,21 +1160,21 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="8">
         <v>19</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>205154.22447052001</v>
       </c>
       <c r="D5" s="5">
         <v>553721.76305815799</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>78.165904419077506</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <f>C5-VLOOKUP($B5,실측점!$A$2:$D$30,2,0)</f>
         <v>-2.3294799902942032E-3</v>
       </c>
@@ -1092,21 +1193,21 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="8">
         <v>21</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>205154.15127216201</v>
       </c>
       <c r="D6" s="5">
         <v>553720.67016286298</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>78.170508954907504</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <f>C6-VLOOKUP($B6,실측점!$A$2:$D$30,2,0)</f>
         <v>-1.1278379824943841E-3</v>
       </c>
@@ -1125,21 +1226,21 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="8">
         <v>22</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>205154.12456465699</v>
       </c>
       <c r="D7" s="5">
         <v>553720.27129526495</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>78.170913620051095</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <f>C7-VLOOKUP($B7,실측점!$A$2:$D$30,2,0)</f>
         <v>-1.8353430205024779E-3</v>
       </c>
@@ -1158,21 +1259,21 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="8">
         <v>25</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>205154.22814996701</v>
       </c>
       <c r="D8" s="5">
         <v>553721.76687189005</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>77.5650356959096</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <f>C8-VLOOKUP($B8,실측점!$A$2:$D$30,2,0)</f>
         <v>3.4996701288037002E-4</v>
       </c>
@@ -1191,21 +1292,21 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="8">
         <v>26</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>205154.188190104</v>
       </c>
       <c r="D9" s="5">
         <v>553721.17007872299</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>77.565569801415705</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <f>C9-VLOOKUP($B9,실측점!$A$2:$D$30,2,0)</f>
         <v>-8.1098960072267801E-3</v>
       </c>
@@ -1222,23 +1323,23 @@
         <v>1.2016210430277854E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="8">
         <v>28</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>205154.108220247</v>
       </c>
       <c r="D10" s="5">
         <v>553719.97562948801</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>77.565296963075198</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <f>C10-VLOOKUP($B10,실측점!$A$2:$D$30,2,0)</f>
         <v>-8.7797529995441437E-3</v>
       </c>
@@ -1256,21 +1357,2100 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F11">
-        <f>SQRT(SUMSQ(F2:F10)/COUNT(F2:F10))</f>
-        <v>4.5958170994496415E-3</v>
-      </c>
-      <c r="G11">
-        <f>SQRT(SUMSQ(G2:G10)/COUNT(G2:G10))</f>
-        <v>6.8444313403489502E-3</v>
-      </c>
-      <c r="H11" s="6">
-        <f>SQRT(SUMSQ(H2:H10)/COUNT(H2:H10))</f>
-        <v>2.0343860608099854E-2</v>
-      </c>
-      <c r="I11">
-        <f>SQRT(SUMSQ(I2:I10)/COUNT(I2:I10))</f>
-        <v>2.1950864211373128E-2</v>
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>205154.216075106</v>
+      </c>
+      <c r="D11" s="2">
+        <v>553721.739749823</v>
+      </c>
+      <c r="E11" s="3">
+        <v>79.365298206277302</v>
+      </c>
+      <c r="F11" s="2">
+        <f>C11-VLOOKUP($B11,실측점!$A$2:$D$30,2,0)</f>
+        <v>-2.7248940023127943E-3</v>
+      </c>
+      <c r="G11" s="2">
+        <f>D11-VLOOKUP($B11,실측점!$A$2:$D$30,3,0)</f>
+        <v>-2.9550177045166492E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <f>E11-VLOOKUP($B11,실측점!$A$2:$D$30,4,0)</f>
+        <v>3.4298206277298959E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5354216612842897E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>205154.17615757301</v>
+      </c>
+      <c r="D12" s="5">
+        <v>553721.14374601399</v>
+      </c>
+      <c r="E12" s="6">
+        <v>79.367678174200805</v>
+      </c>
+      <c r="F12" s="5">
+        <f>C12-VLOOKUP($B12,실측점!$A$2:$D$30,2,0)</f>
+        <v>-4.1424270020797849E-3</v>
+      </c>
+      <c r="G12" s="5">
+        <f>D12-VLOOKUP($B12,실측점!$A$2:$D$30,3,0)</f>
+        <v>-2.9953986057080328E-2</v>
+      </c>
+      <c r="H12" s="6">
+        <f>E12-VLOOKUP($B12,실측점!$A$2:$D$30,4,0)</f>
+        <v>3.819817420080085E-2</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>4.8718594955622953E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5">
+        <v>205154.14276617201</v>
+      </c>
+      <c r="D13" s="5">
+        <v>553720.64572413603</v>
+      </c>
+      <c r="E13" s="6">
+        <v>79.376025902078396</v>
+      </c>
+      <c r="F13" s="5">
+        <f>C13-VLOOKUP($B13,실측점!$A$2:$D$30,2,0)</f>
+        <v>-4.2338279890827835E-3</v>
+      </c>
+      <c r="G13" s="5">
+        <f>D13-VLOOKUP($B13,실측점!$A$2:$D$30,3,0)</f>
+        <v>-3.3275863970629871E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <f>E13-VLOOKUP($B13,실측점!$A$2:$D$30,4,0)</f>
+        <v>5.4595902078389713E-2</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
+        <v>6.4077460516051357E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5">
+        <v>205154.115770809</v>
+      </c>
+      <c r="D14" s="5">
+        <v>553720.24281668395</v>
+      </c>
+      <c r="E14" s="6">
+        <v>79.379480281982595</v>
+      </c>
+      <c r="F14" s="5">
+        <f>C14-VLOOKUP($B14,실측점!$A$2:$D$30,2,0)</f>
+        <v>-3.8291910022962838E-3</v>
+      </c>
+      <c r="G14" s="5">
+        <f>D14-VLOOKUP($B14,실측점!$A$2:$D$30,3,0)</f>
+        <v>-3.588331607170403E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <f>E14-VLOOKUP($B14,실측점!$A$2:$D$30,4,0)</f>
+        <v>4.737028198259452E-2</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>5.9550135945641625E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
+        <v>205154.21950556099</v>
+      </c>
+      <c r="D15" s="5">
+        <v>553721.73970771697</v>
+      </c>
+      <c r="E15" s="6">
+        <v>78.762821056964299</v>
+      </c>
+      <c r="F15" s="5">
+        <f>C15-VLOOKUP($B15,실측점!$A$2:$D$30,2,0)</f>
+        <v>-3.9944390009623021E-3</v>
+      </c>
+      <c r="G15" s="5">
+        <f>D15-VLOOKUP($B15,실측점!$A$2:$D$30,3,0)</f>
+        <v>-2.7492283028550446E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <f>E15-VLOOKUP($B15,실측점!$A$2:$D$30,4,0)</f>
+        <v>-3.2889430356988214E-3</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7974958719297574E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5">
+        <v>205154.179837342</v>
+      </c>
+      <c r="D16" s="5">
+        <v>553721.14710049506</v>
+      </c>
+      <c r="E16" s="6">
+        <v>78.7613574207586</v>
+      </c>
+      <c r="F16" s="5">
+        <f>C16-VLOOKUP($B16,실측점!$A$2:$D$30,2,0)</f>
+        <v>-5.3626580047421157E-3</v>
+      </c>
+      <c r="G16" s="5">
+        <f>D16-VLOOKUP($B16,실측점!$A$2:$D$30,3,0)</f>
+        <v>-2.2899504983797669E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <f>E16-VLOOKUP($B16,실측점!$A$2:$D$30,4,0)</f>
+        <v>1.667742075859735E-2</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8831957833939978E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="5">
+        <v>205154.14663288201</v>
+      </c>
+      <c r="D17" s="5">
+        <v>553720.65124168096</v>
+      </c>
+      <c r="E17" s="6">
+        <v>78.762314147944707</v>
+      </c>
+      <c r="F17" s="5">
+        <f>C17-VLOOKUP($B17,실측점!$A$2:$D$30,2,0)</f>
+        <v>-5.4671179968863726E-3</v>
+      </c>
+      <c r="G17" s="5">
+        <f>D17-VLOOKUP($B17,실측점!$A$2:$D$30,3,0)</f>
+        <v>-2.4758319021202624E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <f>E17-VLOOKUP($B17,실측점!$A$2:$D$30,4,0)</f>
+        <v>1.3534147944710639E-2</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8740857686172794E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="8">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5">
+        <v>205154.11948854101</v>
+      </c>
+      <c r="D18" s="5">
+        <v>553720.24641449901</v>
+      </c>
+      <c r="E18" s="6">
+        <v>78.7693566734592</v>
+      </c>
+      <c r="F18" s="5">
+        <f>C18-VLOOKUP($B18,실측점!$A$2:$D$30,2,0)</f>
+        <v>-2.1114590053912252E-3</v>
+      </c>
+      <c r="G18" s="5">
+        <f>D18-VLOOKUP($B18,실측점!$A$2:$D$30,3,0)</f>
+        <v>-2.858550101518631E-2</v>
+      </c>
+      <c r="H18" s="6">
+        <f>E18-VLOOKUP($B18,실측점!$A$2:$D$30,4,0)</f>
+        <v>2.0916673459197455E-2</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="0"/>
+        <v>3.5483747773020824E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5">
+        <v>205154.22321211101</v>
+      </c>
+      <c r="D19" s="5">
+        <v>553721.74308997497</v>
+      </c>
+      <c r="E19" s="6">
+        <v>78.1521270254337</v>
+      </c>
+      <c r="F19" s="5">
+        <f>C19-VLOOKUP($B19,실측점!$A$2:$D$30,2,0)</f>
+        <v>-3.5878889902960509E-3</v>
+      </c>
+      <c r="G19" s="5">
+        <f>D19-VLOOKUP($B19,실측점!$A$2:$D$30,3,0)</f>
+        <v>-3.0310024973005056E-2</v>
+      </c>
+      <c r="H19" s="6">
+        <f>E19-VLOOKUP($B19,실측점!$A$2:$D$30,4,0)</f>
+        <v>1.4037025433694339E-2</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="0"/>
+        <v>3.3594771085647533E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5">
+        <v>205154.18383975499</v>
+      </c>
+      <c r="D20" s="5">
+        <v>553721.15520717902</v>
+      </c>
+      <c r="E20" s="6">
+        <v>78.154251781865696</v>
+      </c>
+      <c r="F20" s="5">
+        <f>C20-VLOOKUP($B20,실측점!$A$2:$D$30,2,0)</f>
+        <v>-5.1602450257632881E-3</v>
+      </c>
+      <c r="G20" s="5">
+        <f>D20-VLOOKUP($B20,실측점!$A$2:$D$30,3,0)</f>
+        <v>-2.3992820992134511E-2</v>
+      </c>
+      <c r="H20" s="6">
+        <f>E20-VLOOKUP($B20,실측점!$A$2:$D$30,4,0)</f>
+        <v>-6.0482181343104457E-3</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5275769631936573E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="8">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5">
+        <v>205154.150209707</v>
+      </c>
+      <c r="D21" s="5">
+        <v>553720.65329739498</v>
+      </c>
+      <c r="E21" s="6">
+        <v>78.158798916418903</v>
+      </c>
+      <c r="F21" s="5">
+        <f>C21-VLOOKUP($B21,실측점!$A$2:$D$30,2,0)</f>
+        <v>-2.1902929875068367E-3</v>
+      </c>
+      <c r="G21" s="5">
+        <f>D21-VLOOKUP($B21,실측점!$A$2:$D$30,3,0)</f>
+        <v>-2.3302605026401579E-2</v>
+      </c>
+      <c r="H21" s="6">
+        <f>E21-VLOOKUP($B21,실측점!$A$2:$D$30,4,0)</f>
+        <v>5.2989164189085614E-3</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="0"/>
+        <v>2.3997651960185114E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="8">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5">
+        <v>205154.123432241</v>
+      </c>
+      <c r="D22" s="5">
+        <v>553720.25354867196</v>
+      </c>
+      <c r="E22" s="6">
+        <v>78.161128162897796</v>
+      </c>
+      <c r="F22" s="5">
+        <f>C22-VLOOKUP($B22,실측점!$A$2:$D$30,2,0)</f>
+        <v>-2.9677590064238757E-3</v>
+      </c>
+      <c r="G22" s="5">
+        <f>D22-VLOOKUP($B22,실측점!$A$2:$D$30,3,0)</f>
+        <v>-1.265132799744606E-2</v>
+      </c>
+      <c r="H22" s="6">
+        <f>E22-VLOOKUP($B22,실측점!$A$2:$D$30,4,0)</f>
+        <v>2.928162897802622E-3</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3320579250739827E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>2</v>
+      </c>
+      <c r="B23" s="8">
+        <v>25</v>
+      </c>
+      <c r="C23" s="5">
+        <v>205154.22679132799</v>
+      </c>
+      <c r="D23" s="5">
+        <v>553721.74559720501</v>
+      </c>
+      <c r="E23" s="6">
+        <v>77.553496946816907</v>
+      </c>
+      <c r="F23" s="5">
+        <f>C23-VLOOKUP($B23,실측점!$A$2:$D$30,2,0)</f>
+        <v>-1.0086719994433224E-3</v>
+      </c>
+      <c r="G23" s="5">
+        <f>D23-VLOOKUP($B23,실측점!$A$2:$D$30,3,0)</f>
+        <v>-1.5402795048430562E-2</v>
+      </c>
+      <c r="H23" s="6">
+        <f>E23-VLOOKUP($B23,실측점!$A$2:$D$30,4,0)</f>
+        <v>-3.9630531830994187E-3</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5936414434824808E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <v>2</v>
+      </c>
+      <c r="B24" s="12">
+        <v>26</v>
+      </c>
+      <c r="C24" s="10">
+        <v>205154.186809529</v>
+      </c>
+      <c r="D24" s="10">
+        <v>553721.14845525997</v>
+      </c>
+      <c r="E24" s="11">
+        <v>77.553782514021904</v>
+      </c>
+      <c r="F24" s="10">
+        <f>C24-VLOOKUP($B24,실측점!$A$2:$D$30,2,0)</f>
+        <v>-9.4904710131231695E-3</v>
+      </c>
+      <c r="G24" s="10">
+        <f>D24-VLOOKUP($B24,실측점!$A$2:$D$30,3,0)</f>
+        <v>-2.7544740005396307E-2</v>
+      </c>
+      <c r="H24" s="11">
+        <f>E24-VLOOKUP($B24,실측점!$A$2:$D$30,4,0)</f>
+        <v>-5.1874859780980387E-3</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="0"/>
+        <v>2.959208936166513E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>3</v>
+      </c>
+      <c r="B25" s="8">
+        <v>14</v>
+      </c>
+      <c r="C25" s="5">
+        <v>205154.18056670899</v>
+      </c>
+      <c r="D25" s="5">
+        <v>553721.15678550699</v>
+      </c>
+      <c r="E25" s="6">
+        <v>78.7471554521196</v>
+      </c>
+      <c r="F25" s="5">
+        <f>C25-VLOOKUP($B25,실측점!$A$2:$D$30,2,0)</f>
+        <v>-4.6332910133060068E-3</v>
+      </c>
+      <c r="G25" s="5">
+        <f>D25-VLOOKUP($B25,실측점!$A$2:$D$30,3,0)</f>
+        <v>-1.3214493053965271E-2</v>
+      </c>
+      <c r="H25" s="6">
+        <f>E25-VLOOKUP($B25,실측점!$A$2:$D$30,4,0)</f>
+        <v>2.4754521195973211E-3</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4220340202811516E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>3</v>
+      </c>
+      <c r="B26" s="8">
+        <v>15</v>
+      </c>
+      <c r="C26" s="5">
+        <v>205154.147300546</v>
+      </c>
+      <c r="D26" s="5">
+        <v>553720.66010898899</v>
+      </c>
+      <c r="E26" s="6">
+        <v>78.749332851833799</v>
+      </c>
+      <c r="F26" s="5">
+        <f>C26-VLOOKUP($B26,실측점!$A$2:$D$30,2,0)</f>
+        <v>-4.7994540072977543E-3</v>
+      </c>
+      <c r="G26" s="5">
+        <f>D26-VLOOKUP($B26,실측점!$A$2:$D$30,3,0)</f>
+        <v>-1.5891010989435017E-2</v>
+      </c>
+      <c r="H26" s="6">
+        <f>E26-VLOOKUP($B26,실측점!$A$2:$D$30,4,0)</f>
+        <v>5.5285183380249237E-4</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6609173193890471E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>3</v>
+      </c>
+      <c r="B27" s="8">
+        <v>16</v>
+      </c>
+      <c r="C27" s="5">
+        <v>205154.12015759299</v>
+      </c>
+      <c r="D27" s="5">
+        <v>553720.25524961099</v>
+      </c>
+      <c r="E27" s="6">
+        <v>78.755753517914897</v>
+      </c>
+      <c r="F27" s="5">
+        <f>C27-VLOOKUP($B27,실측점!$A$2:$D$30,2,0)</f>
+        <v>-1.4424070250242949E-3</v>
+      </c>
+      <c r="G27" s="5">
+        <f>D27-VLOOKUP($B27,실측점!$A$2:$D$30,3,0)</f>
+        <v>-1.9750389037653804E-2</v>
+      </c>
+      <c r="H27" s="6">
+        <f>E27-VLOOKUP($B27,실측점!$A$2:$D$30,4,0)</f>
+        <v>7.3135179148948737E-3</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="0"/>
+        <v>2.1110328028147815E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>3</v>
+      </c>
+      <c r="B28" s="8">
+        <v>19</v>
+      </c>
+      <c r="C28" s="5">
+        <v>205154.22405376099</v>
+      </c>
+      <c r="D28" s="5">
+        <v>553721.75425994303</v>
+      </c>
+      <c r="E28" s="6">
+        <v>78.135668058991001</v>
+      </c>
+      <c r="F28" s="5">
+        <f>C28-VLOOKUP($B28,실측점!$A$2:$D$30,2,0)</f>
+        <v>-2.7462390135042369E-3</v>
+      </c>
+      <c r="G28" s="5">
+        <f>D28-VLOOKUP($B28,실측점!$A$2:$D$30,3,0)</f>
+        <v>-1.9140056916512549E-2</v>
+      </c>
+      <c r="H28" s="6">
+        <f>E28-VLOOKUP($B28,실측점!$A$2:$D$30,4,0)</f>
+        <v>-2.4219410090040583E-3</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9487160022376996E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>3</v>
+      </c>
+      <c r="B29" s="8">
+        <v>25</v>
+      </c>
+      <c r="C29" s="5">
+        <v>205154.227583036</v>
+      </c>
+      <c r="D29" s="5">
+        <v>553721.75566231902</v>
+      </c>
+      <c r="E29" s="6">
+        <v>77.532821080452194</v>
+      </c>
+      <c r="F29" s="5">
+        <f>C29-VLOOKUP($B29,실측점!$A$2:$D$30,2,0)</f>
+        <v>-2.1696399198845029E-4</v>
+      </c>
+      <c r="G29" s="5">
+        <f>D29-VLOOKUP($B29,실측점!$A$2:$D$30,3,0)</f>
+        <v>-5.337681039236486E-3</v>
+      </c>
+      <c r="H29" s="6">
+        <f>E29-VLOOKUP($B29,실측점!$A$2:$D$30,4,0)</f>
+        <v>-2.4638919547811611E-2</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5211391646118575E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>3</v>
+      </c>
+      <c r="B30" s="8">
+        <v>28</v>
+      </c>
+      <c r="C30" s="5">
+        <v>205154.10784685999</v>
+      </c>
+      <c r="D30" s="5">
+        <v>553719.96793456306</v>
+      </c>
+      <c r="E30" s="6">
+        <v>77.540412277495705</v>
+      </c>
+      <c r="F30" s="5">
+        <f>C30-VLOOKUP($B30,실측점!$A$2:$D$30,2,0)</f>
+        <v>-9.1531400103121996E-3</v>
+      </c>
+      <c r="G30" s="5">
+        <f>D30-VLOOKUP($B30,실측점!$A$2:$D$30,3,0)</f>
+        <v>-1.1465436895377934E-2</v>
+      </c>
+      <c r="H30" s="6">
+        <f>E30-VLOOKUP($B30,실측점!$A$2:$D$30,4,0)</f>
+        <v>-2.3357722504300682E-2</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7582955168694058E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" s="7">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2">
+        <v>205154.17884349701</v>
+      </c>
+      <c r="D31" s="2">
+        <v>553721.18501416896</v>
+      </c>
+      <c r="E31" s="3">
+        <v>79.381205017088902</v>
+      </c>
+      <c r="F31" s="2">
+        <f>C31-VLOOKUP($B31,실측점!$A$2:$D$30,2,0)</f>
+        <v>-1.4565029996447265E-3</v>
+      </c>
+      <c r="G31" s="2">
+        <f>D31-VLOOKUP($B31,실측점!$A$2:$D$30,3,0)</f>
+        <v>1.1314168921671808E-2</v>
+      </c>
+      <c r="H31" s="3">
+        <f>E31-VLOOKUP($B31,실측점!$A$2:$D$30,4,0)</f>
+        <v>5.1725017088898539E-2</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="0"/>
+        <v>5.2968001776760885E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>4</v>
+      </c>
+      <c r="B32" s="8">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5">
+        <v>205154.182296377</v>
+      </c>
+      <c r="D32" s="5">
+        <v>553721.18519663496</v>
+      </c>
+      <c r="E32" s="6">
+        <v>78.777431272536901</v>
+      </c>
+      <c r="F32" s="5">
+        <f>C32-VLOOKUP($B32,실측점!$A$2:$D$30,2,0)</f>
+        <v>-2.9036230116616935E-3</v>
+      </c>
+      <c r="G32" s="5">
+        <f>D32-VLOOKUP($B32,실측점!$A$2:$D$30,3,0)</f>
+        <v>1.51966349221766E-2</v>
+      </c>
+      <c r="H32" s="6">
+        <f>E32-VLOOKUP($B32,실측점!$A$2:$D$30,4,0)</f>
+        <v>3.2751272536899023E-2</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="0"/>
+        <v>3.6221741983758937E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>4</v>
+      </c>
+      <c r="B33" s="8">
+        <v>15</v>
+      </c>
+      <c r="C33" s="5">
+        <v>205154.14901791399</v>
+      </c>
+      <c r="D33" s="5">
+        <v>553720.68814383203</v>
+      </c>
+      <c r="E33" s="6">
+        <v>78.777346042447306</v>
+      </c>
+      <c r="F33" s="5">
+        <f>C33-VLOOKUP($B33,실측점!$A$2:$D$30,2,0)</f>
+        <v>-3.082086012000218E-3</v>
+      </c>
+      <c r="G33" s="5">
+        <f>D33-VLOOKUP($B33,실측점!$A$2:$D$30,3,0)</f>
+        <v>1.2143832049332559E-2</v>
+      </c>
+      <c r="H33" s="6">
+        <f>E33-VLOOKUP($B33,실측점!$A$2:$D$30,4,0)</f>
+        <v>2.8566042447309314E-2</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="0"/>
+        <v>3.1192798722289115E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>4</v>
+      </c>
+      <c r="B34" s="8">
+        <v>16</v>
+      </c>
+      <c r="C34" s="5">
+        <v>205154.12232182399</v>
+      </c>
+      <c r="D34" s="5">
+        <v>553720.28954381205</v>
+      </c>
+      <c r="E34" s="6">
+        <v>78.7788911736302</v>
+      </c>
+      <c r="F34" s="5">
+        <f>C34-VLOOKUP($B34,실측점!$A$2:$D$30,2,0)</f>
+        <v>7.2182397707365453E-4</v>
+      </c>
+      <c r="G34" s="5">
+        <f>D34-VLOOKUP($B34,실측점!$A$2:$D$30,3,0)</f>
+        <v>1.4543812023475766E-2</v>
+      </c>
+      <c r="H34" s="6">
+        <f>E34-VLOOKUP($B34,실측점!$A$2:$D$30,4,0)</f>
+        <v>3.0451173630197559E-2</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="0"/>
+        <v>3.375377717359223E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>4</v>
+      </c>
+      <c r="B35" s="8">
+        <v>17</v>
+      </c>
+      <c r="C35" s="5">
+        <v>205154.08918319701</v>
+      </c>
+      <c r="D35" s="5">
+        <v>553719.79463586002</v>
+      </c>
+      <c r="E35" s="6">
+        <v>78.779467147112598</v>
+      </c>
+      <c r="F35" s="5">
+        <f>C35-VLOOKUP($B35,실측점!$A$2:$D$30,2,0)</f>
+        <v>-4.5168029901105911E-3</v>
+      </c>
+      <c r="G35" s="5">
+        <f>D35-VLOOKUP($B35,실측점!$A$2:$D$30,3,0)</f>
+        <v>1.643586007412523E-2</v>
+      </c>
+      <c r="H35" s="6">
+        <f>E35-VLOOKUP($B35,실측점!$A$2:$D$30,4,0)</f>
+        <v>3.1807147112601797E-2</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="0"/>
+        <v>3.6086474101391347E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>4</v>
+      </c>
+      <c r="B36" s="8">
+        <v>18</v>
+      </c>
+      <c r="C36" s="5">
+        <v>205154.055637301</v>
+      </c>
+      <c r="D36" s="5">
+        <v>553719.29376040597</v>
+      </c>
+      <c r="E36" s="6">
+        <v>78.781399379410203</v>
+      </c>
+      <c r="F36" s="5">
+        <f>C36-VLOOKUP($B36,실측점!$A$2:$D$30,2,0)</f>
+        <v>7.3730101576074958E-4</v>
+      </c>
+      <c r="G36" s="5">
+        <f>D36-VLOOKUP($B36,실측점!$A$2:$D$30,3,0)</f>
+        <v>1.4460405916906893E-2</v>
+      </c>
+      <c r="H36" s="6">
+        <f>E36-VLOOKUP($B36,실측점!$A$2:$D$30,4,0)</f>
+        <v>2.4019379410205488E-2</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8045989719048266E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>4</v>
+      </c>
+      <c r="B37" s="8">
+        <v>20</v>
+      </c>
+      <c r="C37" s="5">
+        <v>205154.185755193</v>
+      </c>
+      <c r="D37" s="5">
+        <v>553721.18529263395</v>
+      </c>
+      <c r="E37" s="6">
+        <v>78.1715999516517</v>
+      </c>
+      <c r="F37" s="5">
+        <f>C37-VLOOKUP($B37,실측점!$A$2:$D$30,2,0)</f>
+        <v>-3.2448070123791695E-3</v>
+      </c>
+      <c r="G37" s="5">
+        <f>D37-VLOOKUP($B37,실측점!$A$2:$D$30,3,0)</f>
+        <v>6.0926339356228709E-3</v>
+      </c>
+      <c r="H37" s="6">
+        <f>E37-VLOOKUP($B37,실측점!$A$2:$D$30,4,0)</f>
+        <v>1.1299951651693618E-2</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3241520613271792E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>4</v>
+      </c>
+      <c r="B38" s="8">
+        <v>21</v>
+      </c>
+      <c r="C38" s="5">
+        <v>205154.15242957501</v>
+      </c>
+      <c r="D38" s="5">
+        <v>553720.68725475296</v>
+      </c>
+      <c r="E38" s="6">
+        <v>78.168215956858205</v>
+      </c>
+      <c r="F38" s="5">
+        <f>C38-VLOOKUP($B38,실측점!$A$2:$D$30,2,0)</f>
+        <v>2.9575021471828222E-5</v>
+      </c>
+      <c r="G38" s="5">
+        <f>D38-VLOOKUP($B38,실측점!$A$2:$D$30,3,0)</f>
+        <v>1.0654752957634628E-2</v>
+      </c>
+      <c r="H38" s="6">
+        <f>E38-VLOOKUP($B38,실측점!$A$2:$D$30,4,0)</f>
+        <v>1.4715956858211143E-2</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8168214593703214E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>4</v>
+      </c>
+      <c r="B39" s="8">
+        <v>22</v>
+      </c>
+      <c r="C39" s="5">
+        <v>205154.12586914099</v>
+      </c>
+      <c r="D39" s="5">
+        <v>553720.29067212797</v>
+      </c>
+      <c r="E39" s="6">
+        <v>78.169658180693304</v>
+      </c>
+      <c r="F39" s="5">
+        <f>C39-VLOOKUP($B39,실측점!$A$2:$D$30,2,0)</f>
+        <v>-5.308590189088136E-4</v>
+      </c>
+      <c r="G39" s="5">
+        <f>D39-VLOOKUP($B39,실측점!$A$2:$D$30,3,0)</f>
+        <v>2.4472128017805517E-2</v>
+      </c>
+      <c r="H39" s="6">
+        <f>E39-VLOOKUP($B39,실측점!$A$2:$D$30,4,0)</f>
+        <v>1.1458180693310283E-2</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7026963681079069E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>4</v>
+      </c>
+      <c r="B40" s="8">
+        <v>23</v>
+      </c>
+      <c r="C40" s="5">
+        <v>205154.09280888201</v>
+      </c>
+      <c r="D40" s="5">
+        <v>553719.79695974605</v>
+      </c>
+      <c r="E40" s="6">
+        <v>78.170528555844797</v>
+      </c>
+      <c r="F40" s="5">
+        <f>C40-VLOOKUP($B40,실측점!$A$2:$D$30,2,0)</f>
+        <v>-5.9911179996561259E-3</v>
+      </c>
+      <c r="G40" s="5">
+        <f>D40-VLOOKUP($B40,실측점!$A$2:$D$30,3,0)</f>
+        <v>1.3959745992906392E-2</v>
+      </c>
+      <c r="H40" s="6">
+        <f>E40-VLOOKUP($B40,실측점!$A$2:$D$30,4,0)</f>
+        <v>1.8785558447973472E-3</v>
+      </c>
+      <c r="I40" s="6">
+        <f t="shared" si="0"/>
+        <v>1.530676239883183E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>4</v>
+      </c>
+      <c r="B41" s="8">
+        <v>24</v>
+      </c>
+      <c r="C41" s="5">
+        <v>205154.05921972101</v>
+      </c>
+      <c r="D41" s="5">
+        <v>553719.29598776298</v>
+      </c>
+      <c r="E41" s="6">
+        <v>78.178918960943605</v>
+      </c>
+      <c r="F41" s="5">
+        <f>C41-VLOOKUP($B41,실측점!$A$2:$D$30,2,0)</f>
+        <v>1.4197209966368973E-3</v>
+      </c>
+      <c r="G41" s="5">
+        <f>D41-VLOOKUP($B41,실측점!$A$2:$D$30,3,0)</f>
+        <v>1.2887762975879014E-2</v>
+      </c>
+      <c r="H41" s="6">
+        <f>E41-VLOOKUP($B41,실측점!$A$2:$D$30,4,0)</f>
+        <v>9.6089609436091905E-3</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6138220863730186E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>4</v>
+      </c>
+      <c r="B42" s="8">
+        <v>26</v>
+      </c>
+      <c r="C42" s="5">
+        <v>205154.18870794799</v>
+      </c>
+      <c r="D42" s="5">
+        <v>553721.17805084796</v>
+      </c>
+      <c r="E42" s="6">
+        <v>77.568361822318593</v>
+      </c>
+      <c r="F42" s="5">
+        <f>C42-VLOOKUP($B42,실측점!$A$2:$D$30,2,0)</f>
+        <v>-7.5920520175714046E-3</v>
+      </c>
+      <c r="G42" s="5">
+        <f>D42-VLOOKUP($B42,실측점!$A$2:$D$30,3,0)</f>
+        <v>2.0508479792624712E-3</v>
+      </c>
+      <c r="H42" s="6">
+        <f>E42-VLOOKUP($B42,실측점!$A$2:$D$30,4,0)</f>
+        <v>9.3918223185909255E-3</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2249553368818701E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="9">
+        <v>4</v>
+      </c>
+      <c r="B43" s="12">
+        <v>28</v>
+      </c>
+      <c r="C43" s="10">
+        <v>205154.109904554</v>
+      </c>
+      <c r="D43" s="10">
+        <v>553720.00103344501</v>
+      </c>
+      <c r="E43" s="11">
+        <v>77.568201626453302</v>
+      </c>
+      <c r="F43" s="10">
+        <f>C43-VLOOKUP($B43,실측점!$A$2:$D$30,2,0)</f>
+        <v>-7.0954459952190518E-3</v>
+      </c>
+      <c r="G43" s="10">
+        <f>D43-VLOOKUP($B43,실측점!$A$2:$D$30,3,0)</f>
+        <v>2.1633445052430034E-2</v>
+      </c>
+      <c r="H43" s="11">
+        <f>E43-VLOOKUP($B43,실측점!$A$2:$D$30,4,0)</f>
+        <v>4.4316264532966443E-3</v>
+      </c>
+      <c r="I43" s="11">
+        <f t="shared" si="0"/>
+        <v>2.3194624630054658E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>5</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5">
+        <v>205154.17454850199</v>
+      </c>
+      <c r="D44" s="5">
+        <v>553721.171995254</v>
+      </c>
+      <c r="E44" s="6">
+        <v>79.981939854631193</v>
+      </c>
+      <c r="F44" s="5">
+        <f>C44-VLOOKUP($B44,실측점!$A$2:$D$30,2,0)</f>
+        <v>-1.5514980186708272E-3</v>
+      </c>
+      <c r="G44" s="5">
+        <f>D44-VLOOKUP($B44,실측점!$A$2:$D$30,3,0)</f>
+        <v>-2.0047459984198213E-3</v>
+      </c>
+      <c r="H44" s="6">
+        <f>E44-VLOOKUP($B44,실측점!$A$2:$D$30,4,0)</f>
+        <v>5.7449854631187236E-2</v>
+      </c>
+      <c r="I44" s="6">
+        <f t="shared" si="0"/>
+        <v>5.7505755796830156E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>5</v>
+      </c>
+      <c r="B45" s="8">
+        <v>3</v>
+      </c>
+      <c r="C45" s="5">
+        <v>205154.14117812799</v>
+      </c>
+      <c r="D45" s="5">
+        <v>553720.67365015903</v>
+      </c>
+      <c r="E45" s="6">
+        <v>79.982800260972098</v>
+      </c>
+      <c r="F45" s="5">
+        <f>C45-VLOOKUP($B45,실측점!$A$2:$D$30,2,0)</f>
+        <v>-3.4218720102217048E-3</v>
+      </c>
+      <c r="G45" s="5">
+        <f>D45-VLOOKUP($B45,실측점!$A$2:$D$30,3,0)</f>
+        <v>-1.0749840992502868E-2</v>
+      </c>
+      <c r="H45" s="6">
+        <f>E45-VLOOKUP($B45,실측점!$A$2:$D$30,4,0)</f>
+        <v>7.0530260972091696E-2</v>
+      </c>
+      <c r="I45" s="6">
+        <f t="shared" si="0"/>
+        <v>7.1426787707482647E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>5</v>
+      </c>
+      <c r="B46" s="8">
+        <v>4</v>
+      </c>
+      <c r="C46" s="5">
+        <v>205154.11445741</v>
+      </c>
+      <c r="D46" s="5">
+        <v>553720.27445090096</v>
+      </c>
+      <c r="E46" s="6">
+        <v>79.981626857033206</v>
+      </c>
+      <c r="F46" s="5">
+        <f>C46-VLOOKUP($B46,실측점!$A$2:$D$30,2,0)</f>
+        <v>-3.5425899841357023E-3</v>
+      </c>
+      <c r="G46" s="5">
+        <f>D46-VLOOKUP($B46,실측점!$A$2:$D$30,3,0)</f>
+        <v>-5.8490990195423365E-3</v>
+      </c>
+      <c r="H46" s="6">
+        <f>E46-VLOOKUP($B46,실측점!$A$2:$D$30,4,0)</f>
+        <v>5.815685703321094E-2</v>
+      </c>
+      <c r="I46" s="6">
+        <f t="shared" si="0"/>
+        <v>5.8557509536501351E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>5</v>
+      </c>
+      <c r="B47" s="8">
+        <v>8</v>
+      </c>
+      <c r="C47" s="5">
+        <v>205154.17754013601</v>
+      </c>
+      <c r="D47" s="5">
+        <v>553721.16450282698</v>
+      </c>
+      <c r="E47" s="6">
+        <v>79.368934397827303</v>
+      </c>
+      <c r="F47" s="5">
+        <f>C47-VLOOKUP($B47,실측점!$A$2:$D$30,2,0)</f>
+        <v>-2.7598640008363873E-3</v>
+      </c>
+      <c r="G47" s="5">
+        <f>D47-VLOOKUP($B47,실측점!$A$2:$D$30,3,0)</f>
+        <v>-9.1971730580553412E-3</v>
+      </c>
+      <c r="H47" s="6">
+        <f>E47-VLOOKUP($B47,실측점!$A$2:$D$30,4,0)</f>
+        <v>3.9454397827299204E-2</v>
+      </c>
+      <c r="I47" s="6">
+        <f t="shared" si="0"/>
+        <v>4.0606087591366441E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>5</v>
+      </c>
+      <c r="B48" s="8">
+        <v>9</v>
+      </c>
+      <c r="C48" s="5">
+        <v>205154.14447430201</v>
+      </c>
+      <c r="D48" s="5">
+        <v>553720.67068439606</v>
+      </c>
+      <c r="E48" s="6">
+        <v>79.369537227974206</v>
+      </c>
+      <c r="F48" s="5">
+        <f>C48-VLOOKUP($B48,실측점!$A$2:$D$30,2,0)</f>
+        <v>-2.5256979861296713E-3</v>
+      </c>
+      <c r="G48" s="5">
+        <f>D48-VLOOKUP($B48,실측점!$A$2:$D$30,3,0)</f>
+        <v>-8.3156039472669363E-3</v>
+      </c>
+      <c r="H48" s="6">
+        <f>E48-VLOOKUP($B48,실측점!$A$2:$D$30,4,0)</f>
+        <v>4.8107227974199418E-2</v>
+      </c>
+      <c r="I48" s="6">
+        <f t="shared" si="0"/>
+        <v>4.8885926427618576E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>5</v>
+      </c>
+      <c r="B49" s="8">
+        <v>10</v>
+      </c>
+      <c r="C49" s="5">
+        <v>205154.11772456599</v>
+      </c>
+      <c r="D49" s="5">
+        <v>553720.27130840102</v>
+      </c>
+      <c r="E49" s="6">
+        <v>79.371379427957706</v>
+      </c>
+      <c r="F49" s="5">
+        <f>C49-VLOOKUP($B49,실측점!$A$2:$D$30,2,0)</f>
+        <v>-1.8754340126179159E-3</v>
+      </c>
+      <c r="G49" s="5">
+        <f>D49-VLOOKUP($B49,실측점!$A$2:$D$30,3,0)</f>
+        <v>-7.3915990069508553E-3</v>
+      </c>
+      <c r="H49" s="6">
+        <f>E49-VLOOKUP($B49,실측점!$A$2:$D$30,4,0)</f>
+        <v>3.9269427957705716E-2</v>
+      </c>
+      <c r="I49" s="6">
+        <f t="shared" si="0"/>
+        <v>4.0003011895864547E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>5</v>
+      </c>
+      <c r="B50" s="8">
+        <v>11</v>
+      </c>
+      <c r="C50" s="5">
+        <v>205154.08450676099</v>
+      </c>
+      <c r="D50" s="5">
+        <v>553719.77500489203</v>
+      </c>
+      <c r="E50" s="6">
+        <v>79.369453243132398</v>
+      </c>
+      <c r="F50" s="5">
+        <f>C50-VLOOKUP($B50,실측점!$A$2:$D$30,2,0)</f>
+        <v>-3.9932390209287405E-3</v>
+      </c>
+      <c r="G50" s="5">
+        <f>D50-VLOOKUP($B50,실측점!$A$2:$D$30,3,0)</f>
+        <v>-9.5951079856604338E-3</v>
+      </c>
+      <c r="H50" s="6">
+        <f>E50-VLOOKUP($B50,실측점!$A$2:$D$30,4,0)</f>
+        <v>4.0383243132396274E-2</v>
+      </c>
+      <c r="I50" s="6">
+        <f t="shared" si="0"/>
+        <v>4.1699141250450031E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>5</v>
+      </c>
+      <c r="B51" s="8">
+        <v>12</v>
+      </c>
+      <c r="C51" s="5">
+        <v>205154.05075488801</v>
+      </c>
+      <c r="D51" s="5">
+        <v>553719.27124521404</v>
+      </c>
+      <c r="E51" s="6">
+        <v>79.373644029785694</v>
+      </c>
+      <c r="F51" s="5">
+        <f>C51-VLOOKUP($B51,실측점!$A$2:$D$30,2,0)</f>
+        <v>-3.7451119860634208E-3</v>
+      </c>
+      <c r="G51" s="5">
+        <f>D51-VLOOKUP($B51,실측점!$A$2:$D$30,3,0)</f>
+        <v>-2.9954785946756601E-2</v>
+      </c>
+      <c r="H51" s="6">
+        <f>E51-VLOOKUP($B51,실측점!$A$2:$D$30,4,0)</f>
+        <v>4.4804029785694865E-2</v>
+      </c>
+      <c r="I51" s="6">
+        <f t="shared" si="0"/>
+        <v>5.4025143682748272E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>5</v>
+      </c>
+      <c r="B52" s="8">
+        <v>14</v>
+      </c>
+      <c r="C52" s="5">
+        <v>205154.180946234</v>
+      </c>
+      <c r="D52" s="5">
+        <v>553721.16380811203</v>
+      </c>
+      <c r="E52" s="6">
+        <v>78.763064111862207</v>
+      </c>
+      <c r="F52" s="5">
+        <f>C52-VLOOKUP($B52,실측점!$A$2:$D$30,2,0)</f>
+        <v>-4.2537660046946257E-3</v>
+      </c>
+      <c r="G52" s="5">
+        <f>D52-VLOOKUP($B52,실측점!$A$2:$D$30,3,0)</f>
+        <v>-6.19188800919801E-3</v>
+      </c>
+      <c r="H52" s="6">
+        <f>E52-VLOOKUP($B52,실측점!$A$2:$D$30,4,0)</f>
+        <v>1.8384111862204122E-2</v>
+      </c>
+      <c r="I52" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9859747513580835E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>5</v>
+      </c>
+      <c r="B53" s="8">
+        <v>15</v>
+      </c>
+      <c r="C53" s="5">
+        <v>205154.14772243</v>
+      </c>
+      <c r="D53" s="5">
+        <v>553720.66758605698</v>
+      </c>
+      <c r="E53" s="6">
+        <v>78.763147666531395</v>
+      </c>
+      <c r="F53" s="5">
+        <f>C53-VLOOKUP($B53,실측점!$A$2:$D$30,2,0)</f>
+        <v>-4.3775700032711029E-3</v>
+      </c>
+      <c r="G53" s="5">
+        <f>D53-VLOOKUP($B53,실측점!$A$2:$D$30,3,0)</f>
+        <v>-8.4139429964125156E-3</v>
+      </c>
+      <c r="H53" s="6">
+        <f>E53-VLOOKUP($B53,실측점!$A$2:$D$30,4,0)</f>
+        <v>1.4367666531398982E-2</v>
+      </c>
+      <c r="I53" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7215905362132442E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>5</v>
+      </c>
+      <c r="B54" s="8">
+        <v>16</v>
+      </c>
+      <c r="C54" s="5">
+        <v>205154.12109220299</v>
+      </c>
+      <c r="D54" s="5">
+        <v>553720.26993295597</v>
+      </c>
+      <c r="E54" s="6">
+        <v>78.764260275354005</v>
+      </c>
+      <c r="F54" s="5">
+        <f>C54-VLOOKUP($B54,실측점!$A$2:$D$30,2,0)</f>
+        <v>-5.0779702723957598E-4</v>
+      </c>
+      <c r="G54" s="5">
+        <f>D54-VLOOKUP($B54,실측점!$A$2:$D$30,3,0)</f>
+        <v>-5.0670440541580319E-3</v>
+      </c>
+      <c r="H54" s="6">
+        <f>E54-VLOOKUP($B54,실측점!$A$2:$D$30,4,0)</f>
+        <v>1.5820275354002433E-2</v>
+      </c>
+      <c r="I54" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6619684279314949E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>5</v>
+      </c>
+      <c r="B55" s="8">
+        <v>17</v>
+      </c>
+      <c r="C55" s="5">
+        <v>205154.08797912399</v>
+      </c>
+      <c r="D55" s="5">
+        <v>553719.77536906302</v>
+      </c>
+      <c r="E55" s="6">
+        <v>78.764395273944203</v>
+      </c>
+      <c r="F55" s="5">
+        <f>C55-VLOOKUP($B55,실측점!$A$2:$D$30,2,0)</f>
+        <v>-5.7208760117646307E-3</v>
+      </c>
+      <c r="G55" s="5">
+        <f>D55-VLOOKUP($B55,실측점!$A$2:$D$30,3,0)</f>
+        <v>-2.8309369226917624E-3</v>
+      </c>
+      <c r="H55" s="6">
+        <f>E55-VLOOKUP($B55,실측점!$A$2:$D$30,4,0)</f>
+        <v>1.6735273944206597E-2</v>
+      </c>
+      <c r="I55" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7911226093985967E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>5</v>
+      </c>
+      <c r="B56" s="8">
+        <v>18</v>
+      </c>
+      <c r="C56" s="5">
+        <v>205154.05446871099</v>
+      </c>
+      <c r="D56" s="5">
+        <v>553719.27534926904</v>
+      </c>
+      <c r="E56" s="6">
+        <v>78.770154049212607</v>
+      </c>
+      <c r="F56" s="5">
+        <f>C56-VLOOKUP($B56,실측점!$A$2:$D$30,2,0)</f>
+        <v>-4.3128899415023625E-4</v>
+      </c>
+      <c r="G56" s="5">
+        <f>D56-VLOOKUP($B56,실측점!$A$2:$D$30,3,0)</f>
+        <v>-3.9507310139015317E-3</v>
+      </c>
+      <c r="H56" s="6">
+        <f>E56-VLOOKUP($B56,실측점!$A$2:$D$30,4,0)</f>
+        <v>1.2774049212609384E-2</v>
+      </c>
+      <c r="I56" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3377990096679133E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>5</v>
+      </c>
+      <c r="B57" s="8">
+        <v>20</v>
+      </c>
+      <c r="C57" s="5">
+        <v>205154.184413368</v>
+      </c>
+      <c r="D57" s="5">
+        <v>553721.16403747303</v>
+      </c>
+      <c r="E57" s="6">
+        <v>78.157339829650695</v>
+      </c>
+      <c r="F57" s="5">
+        <f>C57-VLOOKUP($B57,실측점!$A$2:$D$30,2,0)</f>
+        <v>-4.5866320142522454E-3</v>
+      </c>
+      <c r="G57" s="5">
+        <f>D57-VLOOKUP($B57,실측점!$A$2:$D$30,3,0)</f>
+        <v>-1.5162526979111135E-2</v>
+      </c>
+      <c r="H57" s="6">
+        <f>E57-VLOOKUP($B57,실측점!$A$2:$D$30,4,0)</f>
+        <v>-2.9601703493113973E-3</v>
+      </c>
+      <c r="I57" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6115273070084136E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>5</v>
+      </c>
+      <c r="B58" s="8">
+        <v>21</v>
+      </c>
+      <c r="C58" s="5">
+        <v>205154.15110526601</v>
+      </c>
+      <c r="D58" s="5">
+        <v>553720.66634420503</v>
+      </c>
+      <c r="E58" s="6">
+        <v>78.154930938946606</v>
+      </c>
+      <c r="F58" s="5">
+        <f>C58-VLOOKUP($B58,실측점!$A$2:$D$30,2,0)</f>
+        <v>-1.2947339855600148E-3</v>
+      </c>
+      <c r="G58" s="5">
+        <f>D58-VLOOKUP($B58,실측점!$A$2:$D$30,3,0)</f>
+        <v>-1.025579497218132E-2</v>
+      </c>
+      <c r="H58" s="6">
+        <f>E58-VLOOKUP($B58,실측점!$A$2:$D$30,4,0)</f>
+        <v>1.4309389466120592E-3</v>
+      </c>
+      <c r="I58" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0435767958023741E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>5</v>
+      </c>
+      <c r="B59" s="8">
+        <v>22</v>
+      </c>
+      <c r="C59" s="5">
+        <v>205154.12453743501</v>
+      </c>
+      <c r="D59" s="5">
+        <v>553720.26945304801</v>
+      </c>
+      <c r="E59" s="6">
+        <v>78.154046481003405</v>
+      </c>
+      <c r="F59" s="5">
+        <f>C59-VLOOKUP($B59,실측점!$A$2:$D$30,2,0)</f>
+        <v>-1.8625649972818792E-3</v>
+      </c>
+      <c r="G59" s="5">
+        <f>D59-VLOOKUP($B59,실측점!$A$2:$D$30,3,0)</f>
+        <v>3.2530480530112982E-3</v>
+      </c>
+      <c r="H59" s="6">
+        <f>E59-VLOOKUP($B59,실측점!$A$2:$D$30,4,0)</f>
+        <v>-4.1535189965884456E-3</v>
+      </c>
+      <c r="I59" s="6">
+        <f t="shared" si="0"/>
+        <v>5.5949253846071375E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>5</v>
+      </c>
+      <c r="B60" s="8">
+        <v>23</v>
+      </c>
+      <c r="C60" s="5">
+        <v>205154.09165253001</v>
+      </c>
+      <c r="D60" s="5">
+        <v>553719.77837498405</v>
+      </c>
+      <c r="E60" s="6">
+        <v>78.155095858687801</v>
+      </c>
+      <c r="F60" s="5">
+        <f>C60-VLOOKUP($B60,실측점!$A$2:$D$30,2,0)</f>
+        <v>-7.1474699943792075E-3</v>
+      </c>
+      <c r="G60" s="5">
+        <f>D60-VLOOKUP($B60,실측점!$A$2:$D$30,3,0)</f>
+        <v>-4.6250160085037351E-3</v>
+      </c>
+      <c r="H60" s="6">
+        <f>E60-VLOOKUP($B60,실측점!$A$2:$D$30,4,0)</f>
+        <v>-1.3554141312198453E-2</v>
+      </c>
+      <c r="I60" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6005994099415125E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>5</v>
+      </c>
+      <c r="B61" s="8">
+        <v>24</v>
+      </c>
+      <c r="C61" s="5">
+        <v>205154.05814939801</v>
+      </c>
+      <c r="D61" s="5">
+        <v>553719.27869253105</v>
+      </c>
+      <c r="E61" s="6">
+        <v>78.163540459676398</v>
+      </c>
+      <c r="F61" s="5">
+        <f>C61-VLOOKUP($B61,실측점!$A$2:$D$30,2,0)</f>
+        <v>3.4939800389111042E-4</v>
+      </c>
+      <c r="G61" s="5">
+        <f>D61-VLOOKUP($B61,실측점!$A$2:$D$30,3,0)</f>
+        <v>-4.4074689503759146E-3</v>
+      </c>
+      <c r="H61" s="6">
+        <f>E61-VLOOKUP($B61,실측점!$A$2:$D$30,4,0)</f>
+        <v>-5.7695403235982212E-3</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" si="0"/>
+        <v>7.2688002489597085E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
+        <v>5</v>
+      </c>
+      <c r="B62" s="8">
+        <v>28</v>
+      </c>
+      <c r="C62" s="5">
+        <v>205154.10855110901</v>
+      </c>
+      <c r="D62" s="5">
+        <v>553719.97963976604</v>
+      </c>
+      <c r="E62" s="6">
+        <v>77.554353205571701</v>
+      </c>
+      <c r="F62" s="5">
+        <f>C62-VLOOKUP($B62,실측점!$A$2:$D$30,2,0)</f>
+        <v>-8.4488909924402833E-3</v>
+      </c>
+      <c r="G62" s="5">
+        <f>D62-VLOOKUP($B62,실측점!$A$2:$D$30,3,0)</f>
+        <v>2.3976608645170927E-4</v>
+      </c>
+      <c r="H62" s="6">
+        <f>E62-VLOOKUP($B62,실측점!$A$2:$D$30,4,0)</f>
+        <v>-9.4167944283043425E-3</v>
+      </c>
+      <c r="I62" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2653745061573456E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>6</v>
+      </c>
+      <c r="B63" s="7">
+        <v>14</v>
+      </c>
+      <c r="C63" s="2">
+        <v>205154.18195048301</v>
+      </c>
+      <c r="D63" s="2">
+        <v>553721.177300788</v>
+      </c>
+      <c r="E63" s="3">
+        <v>78.7453614723577</v>
+      </c>
+      <c r="F63" s="2">
+        <f>C63-VLOOKUP($B63,실측점!$A$2:$D$30,2,0)</f>
+        <v>-3.2495170016773045E-3</v>
+      </c>
+      <c r="G63" s="2">
+        <f>D63-VLOOKUP($B63,실측점!$A$2:$D$30,3,0)</f>
+        <v>7.3007879545912147E-3</v>
+      </c>
+      <c r="H63" s="3">
+        <f>E63-VLOOKUP($B63,실측점!$A$2:$D$30,4,0)</f>
+        <v>6.8147235769799863E-4</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0203036149762118E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>6</v>
+      </c>
+      <c r="B64" s="8">
+        <v>15</v>
+      </c>
+      <c r="C64" s="5">
+        <v>205154.148701987</v>
+      </c>
+      <c r="D64" s="5">
+        <v>553720.68079310097</v>
+      </c>
+      <c r="E64" s="6">
+        <v>78.746422080638496</v>
+      </c>
+      <c r="F64" s="5">
+        <f>C64-VLOOKUP($B64,실측점!$A$2:$D$30,2,0)</f>
+        <v>-3.3980130101554096E-3</v>
+      </c>
+      <c r="G64" s="5">
+        <f>D64-VLOOKUP($B64,실측점!$A$2:$D$30,3,0)</f>
+        <v>4.7931009903550148E-3</v>
+      </c>
+      <c r="H64" s="6">
+        <f>E64-VLOOKUP($B64,실측점!$A$2:$D$30,4,0)</f>
+        <v>-2.3579193615006488E-3</v>
+      </c>
+      <c r="I64" s="6">
+        <f t="shared" si="0"/>
+        <v>6.3308840801476751E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>6</v>
+      </c>
+      <c r="B65" s="8">
+        <v>16</v>
+      </c>
+      <c r="C65" s="5">
+        <v>205154.121928901</v>
+      </c>
+      <c r="D65" s="5">
+        <v>553720.28112625505</v>
+      </c>
+      <c r="E65" s="6">
+        <v>78.7489445967027</v>
+      </c>
+      <c r="F65" s="5">
+        <f>C65-VLOOKUP($B65,실측점!$A$2:$D$30,2,0)</f>
+        <v>3.2890099100768566E-4</v>
+      </c>
+      <c r="G65" s="5">
+        <f>D65-VLOOKUP($B65,실측점!$A$2:$D$30,3,0)</f>
+        <v>6.1262550298124552E-3</v>
+      </c>
+      <c r="H65" s="6">
+        <f>E65-VLOOKUP($B65,실측점!$A$2:$D$30,4,0)</f>
+        <v>5.0459670269731305E-4</v>
+      </c>
+      <c r="I65" s="6">
+        <f t="shared" si="0"/>
+        <v>6.1557935625361285E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>6</v>
+      </c>
+      <c r="B66" s="8">
+        <v>17</v>
+      </c>
+      <c r="C66" s="5">
+        <v>205154.088832601</v>
+      </c>
+      <c r="D66" s="5">
+        <v>553719.78676348703</v>
+      </c>
+      <c r="E66" s="6">
+        <v>78.748498267279402</v>
+      </c>
+      <c r="F66" s="5">
+        <f>C66-VLOOKUP($B66,실측점!$A$2:$D$30,2,0)</f>
+        <v>-4.867398994974792E-3</v>
+      </c>
+      <c r="G66" s="5">
+        <f>D66-VLOOKUP($B66,실측점!$A$2:$D$30,3,0)</f>
+        <v>8.5634870920330286E-3</v>
+      </c>
+      <c r="H66" s="6">
+        <f>E66-VLOOKUP($B66,실측점!$A$2:$D$30,4,0)</f>
+        <v>8.3826727940561341E-4</v>
+      </c>
+      <c r="I66" s="6">
+        <f t="shared" si="0"/>
+        <v>9.8857258804510659E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>6</v>
+      </c>
+      <c r="B67" s="8">
+        <v>18</v>
+      </c>
+      <c r="C67" s="5">
+        <v>205154.055309332</v>
+      </c>
+      <c r="D67" s="5">
+        <v>553719.28638748801</v>
+      </c>
+      <c r="E67" s="6">
+        <v>78.752327869921999</v>
+      </c>
+      <c r="F67" s="5">
+        <f>C67-VLOOKUP($B67,실측점!$A$2:$D$30,2,0)</f>
+        <v>4.093320167157799E-4</v>
+      </c>
+      <c r="G67" s="5">
+        <f>D67-VLOOKUP($B67,실측점!$A$2:$D$30,3,0)</f>
+        <v>7.0874879602342844E-3</v>
+      </c>
+      <c r="H67" s="6">
+        <f>E67-VLOOKUP($B67,실측점!$A$2:$D$30,4,0)</f>
+        <v>-5.0521300779990952E-3</v>
+      </c>
+      <c r="I67" s="6">
+        <f t="shared" ref="I67:I73" si="1">SQRT(SUMSQ(F67:H67))</f>
+        <v>8.7134411463782608E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>6</v>
+      </c>
+      <c r="B68" s="8">
+        <v>20</v>
+      </c>
+      <c r="C68" s="5">
+        <v>205154.18550935099</v>
+      </c>
+      <c r="D68" s="5">
+        <v>553721.17887862795</v>
+      </c>
+      <c r="E68" s="6">
+        <v>78.139382766734798</v>
+      </c>
+      <c r="F68" s="5">
+        <f>C68-VLOOKUP($B68,실측점!$A$2:$D$30,2,0)</f>
+        <v>-3.4906490182038397E-3</v>
+      </c>
+      <c r="G68" s="5">
+        <f>D68-VLOOKUP($B68,실측점!$A$2:$D$30,3,0)</f>
+        <v>-3.2137206289917231E-4</v>
+      </c>
+      <c r="H68" s="6">
+        <f>E68-VLOOKUP($B68,실측점!$A$2:$D$30,4,0)</f>
+        <v>-2.0917233265208779E-2</v>
+      </c>
+      <c r="I68" s="6">
+        <f t="shared" si="1"/>
+        <v>2.1208926376463665E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>6</v>
+      </c>
+      <c r="B69" s="8">
+        <v>21</v>
+      </c>
+      <c r="C69" s="5">
+        <v>205154.15206470201</v>
+      </c>
+      <c r="D69" s="5">
+        <v>553720.67924759502</v>
+      </c>
+      <c r="E69" s="6">
+        <v>78.138168824817498</v>
+      </c>
+      <c r="F69" s="5">
+        <f>C69-VLOOKUP($B69,실측점!$A$2:$D$30,2,0)</f>
+        <v>-3.3529798383824527E-4</v>
+      </c>
+      <c r="G69" s="5">
+        <f>D69-VLOOKUP($B69,실측점!$A$2:$D$30,3,0)</f>
+        <v>2.6475950144231319E-3</v>
+      </c>
+      <c r="H69" s="6">
+        <f>E69-VLOOKUP($B69,실측점!$A$2:$D$30,4,0)</f>
+        <v>-1.5331175182495826E-2</v>
+      </c>
+      <c r="I69" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5561719589259414E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>6</v>
+      </c>
+      <c r="B70" s="8">
+        <v>22</v>
+      </c>
+      <c r="C70" s="5">
+        <v>205154.125390906</v>
+      </c>
+      <c r="D70" s="5">
+        <v>553720.28076211503</v>
+      </c>
+      <c r="E70" s="6">
+        <v>78.137147514740803</v>
+      </c>
+      <c r="F70" s="5">
+        <f>C70-VLOOKUP($B70,실측점!$A$2:$D$30,2,0)</f>
+        <v>-1.0090940049849451E-3</v>
+      </c>
+      <c r="G70" s="5">
+        <f>D70-VLOOKUP($B70,실측점!$A$2:$D$30,3,0)</f>
+        <v>1.4562115073204041E-2</v>
+      </c>
+      <c r="H70" s="6">
+        <f>E70-VLOOKUP($B70,실측점!$A$2:$D$30,4,0)</f>
+        <v>-2.1052485259190235E-2</v>
+      </c>
+      <c r="I70" s="6">
+        <f t="shared" si="1"/>
+        <v>2.5617974192050294E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>6</v>
+      </c>
+      <c r="B71" s="8">
+        <v>23</v>
+      </c>
+      <c r="C71" s="5">
+        <v>205154.09234962601</v>
+      </c>
+      <c r="D71" s="5">
+        <v>553719.78740914201</v>
+      </c>
+      <c r="E71" s="6">
+        <v>78.138910206177997</v>
+      </c>
+      <c r="F71" s="5">
+        <f>C71-VLOOKUP($B71,실측점!$A$2:$D$30,2,0)</f>
+        <v>-6.4503739995416254E-3</v>
+      </c>
+      <c r="G71" s="5">
+        <f>D71-VLOOKUP($B71,실측점!$A$2:$D$30,3,0)</f>
+        <v>4.4091419549658895E-3</v>
+      </c>
+      <c r="H71" s="6">
+        <f>E71-VLOOKUP($B71,실측점!$A$2:$D$30,4,0)</f>
+        <v>-2.973979382200298E-2</v>
+      </c>
+      <c r="I71" s="6">
+        <f t="shared" si="1"/>
+        <v>3.0749035661110573E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>6</v>
+      </c>
+      <c r="B72" s="8">
+        <v>24</v>
+      </c>
+      <c r="C72" s="5">
+        <v>205154.058952391</v>
+      </c>
+      <c r="D72" s="5">
+        <v>553719.28920199804</v>
+      </c>
+      <c r="E72" s="6">
+        <v>78.146104980047696</v>
+      </c>
+      <c r="F72" s="5">
+        <f>C72-VLOOKUP($B72,실측점!$A$2:$D$30,2,0)</f>
+        <v>1.1523909925017506E-3</v>
+      </c>
+      <c r="G72" s="5">
+        <f>D72-VLOOKUP($B72,실측점!$A$2:$D$30,3,0)</f>
+        <v>6.1019980348646641E-3</v>
+      </c>
+      <c r="H72" s="6">
+        <f>E72-VLOOKUP($B72,실측점!$A$2:$D$30,4,0)</f>
+        <v>-2.3205019952300177E-2</v>
+      </c>
+      <c r="I72" s="6">
+        <f t="shared" si="1"/>
+        <v>2.4021559816209702E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="9">
+        <v>6</v>
+      </c>
+      <c r="B73" s="12">
+        <v>28</v>
+      </c>
+      <c r="C73" s="10">
+        <v>205154.109257957</v>
+      </c>
+      <c r="D73" s="10">
+        <v>553719.98864842905</v>
+      </c>
+      <c r="E73" s="11">
+        <v>77.536156689346896</v>
+      </c>
+      <c r="F73" s="10">
+        <f>C73-VLOOKUP($B73,실측점!$A$2:$D$30,2,0)</f>
+        <v>-7.7420430025085807E-3</v>
+      </c>
+      <c r="G73" s="10">
+        <f>D73-VLOOKUP($B73,실측점!$A$2:$D$30,3,0)</f>
+        <v>9.2484290944412351E-3</v>
+      </c>
+      <c r="H73" s="11">
+        <f>E73-VLOOKUP($B73,실측점!$A$2:$D$30,4,0)</f>
+        <v>-2.7613310653109124E-2</v>
+      </c>
+      <c r="I73" s="11">
+        <f t="shared" si="1"/>
+        <v>3.013250065614716E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F74" s="13">
+        <f>SQRT(SUMSQ(F65:F73)/COUNT(F65:F73))</f>
+        <v>3.9462666906201066E-3</v>
+      </c>
+      <c r="G74" s="14">
+        <f>SQRT(SUMSQ(G65:G73)/COUNT(G65:G73))</f>
+        <v>7.6192255784085141E-3</v>
+      </c>
+      <c r="H74" s="15">
+        <f>SQRT(SUMSQ(H65:H73)/COUNT(H65:H73))</f>
+        <v>1.9228703245443832E-2</v>
+      </c>
+      <c r="I74" s="15">
+        <f>SQRT(SUMSQ(I65:I73)/COUNT(I65:I73))</f>
+        <v>2.1056320849320149E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1282,705 +3462,370 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1">
-        <v>205154.139393377</v>
-      </c>
-      <c r="D2" s="2">
-        <v>553720.54622996401</v>
-      </c>
-      <c r="E2" s="2">
-        <v>78.798937778210004</v>
-      </c>
-      <c r="F2" s="1">
-        <f>C2-VLOOKUP($B2,실측점!$A$2:$D$30,2,0)</f>
-        <v>-4.5806623005773872E-2</v>
-      </c>
-      <c r="G2" s="2">
-        <f>D2-VLOOKUP($B2,실측점!$A$2:$D$30,3,0)</f>
-        <v>-0.62377003603614867</v>
-      </c>
-      <c r="H2" s="3">
-        <f>E2-VLOOKUP($B2,실측점!$A$2:$D$30,4,0)</f>
-        <v>5.4257778210001106E-2</v>
-      </c>
-      <c r="I2" s="3">
-        <f>SQRT(SUMSQ(F2:H2))</f>
-        <v>0.6277987026619416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4">
-        <v>205154.10483402401</v>
-      </c>
-      <c r="D3" s="5">
-        <v>553720.03293890296</v>
-      </c>
-      <c r="E3" s="5">
-        <v>78.832843056850606</v>
-      </c>
-      <c r="F3" s="4">
-        <f>C3-VLOOKUP($B3,실측점!$A$2:$D$30,2,0)</f>
-        <v>-4.7265975998016074E-2</v>
-      </c>
-      <c r="G3" s="5">
-        <f>D3-VLOOKUP($B3,실측점!$A$2:$D$30,3,0)</f>
-        <v>-0.64306109701283276</v>
-      </c>
-      <c r="H3" s="6">
-        <f>E3-VLOOKUP($B3,실측점!$A$2:$D$30,4,0)</f>
-        <v>8.4063056850609996E-2</v>
-      </c>
-      <c r="I3" s="6">
-        <f t="shared" ref="I3:I10" si="0">SQRT(SUMSQ(F3:H3))</f>
-        <v>0.65025244675084604</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4">
-        <v>205154.07542512601</v>
-      </c>
-      <c r="D4" s="5">
-        <v>553719.59685920505</v>
-      </c>
-      <c r="E4" s="5">
-        <v>78.870089698021403</v>
-      </c>
-      <c r="F4" s="4">
-        <f>C4-VLOOKUP($B4,실측점!$A$2:$D$30,2,0)</f>
-        <v>-4.6174874005373567E-2</v>
-      </c>
-      <c r="G4" s="5">
-        <f>D4-VLOOKUP($B4,실측점!$A$2:$D$30,3,0)</f>
-        <v>-0.67814079497475177</v>
-      </c>
-      <c r="H4" s="6">
-        <f>E4-VLOOKUP($B4,실측점!$A$2:$D$30,4,0)</f>
-        <v>0.12164969802140035</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.69051119167403674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4">
-        <v>205154.18194372999</v>
-      </c>
-      <c r="D5" s="5">
-        <v>553721.12790121895</v>
-      </c>
-      <c r="E5" s="5">
-        <v>78.166153346534699</v>
-      </c>
-      <c r="F5" s="4">
-        <f>C5-VLOOKUP($B5,실측점!$A$2:$D$30,2,0)</f>
-        <v>-4.4856270018499345E-2</v>
-      </c>
-      <c r="G5" s="5">
-        <f>D5-VLOOKUP($B5,실측점!$A$2:$D$30,3,0)</f>
-        <v>-0.64549878099933267</v>
-      </c>
-      <c r="H5" s="6">
-        <f>E5-VLOOKUP($B5,실측점!$A$2:$D$30,4,0)</f>
-        <v>2.8063346534693778E-2</v>
-      </c>
-      <c r="I5" s="6">
-        <f t="shared" si="0"/>
-        <v>0.64766373424048018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4">
-        <v>205154.10822707199</v>
-      </c>
-      <c r="D6" s="5">
-        <v>553720.03080200404</v>
-      </c>
-      <c r="E6" s="5">
-        <v>78.212318537625904</v>
-      </c>
-      <c r="F6" s="4">
-        <f>C6-VLOOKUP($B6,실측점!$A$2:$D$30,2,0)</f>
-        <v>-4.4172927999170497E-2</v>
-      </c>
-      <c r="G6" s="5">
-        <f>D6-VLOOKUP($B6,실측점!$A$2:$D$30,3,0)</f>
-        <v>-0.64579799596685916</v>
-      </c>
-      <c r="H6" s="6">
-        <f>E6-VLOOKUP($B6,실측점!$A$2:$D$30,4,0)</f>
-        <v>5.8818537625910494E-2</v>
-      </c>
-      <c r="I6" s="6">
-        <f t="shared" si="0"/>
-        <v>0.64997378372614534</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4">
-        <v>205154.07932515</v>
-      </c>
-      <c r="D7" s="5">
-        <v>553719.60055116296</v>
-      </c>
-      <c r="E7" s="5">
-        <v>78.229083069298596</v>
-      </c>
-      <c r="F7" s="4">
-        <f>C7-VLOOKUP($B7,실측점!$A$2:$D$30,2,0)</f>
-        <v>-4.7074850008357316E-2</v>
-      </c>
-      <c r="G7" s="5">
-        <f>D7-VLOOKUP($B7,실측점!$A$2:$D$30,3,0)</f>
-        <v>-0.6656488369917497</v>
-      </c>
-      <c r="H7" s="6">
-        <f>E7-VLOOKUP($B7,실측점!$A$2:$D$30,4,0)</f>
-        <v>7.0883069298602663E-2</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.67106544032975568</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>2</v>
-      </c>
-      <c r="B8" s="8">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4">
-        <v>205154.18527326401</v>
-      </c>
-      <c r="D8" s="5">
-        <v>553721.12768014497</v>
-      </c>
-      <c r="E8" s="5">
-        <v>77.579283267705193</v>
-      </c>
-      <c r="F8" s="4">
-        <f>C8-VLOOKUP($B8,실측점!$A$2:$D$30,2,0)</f>
-        <v>-4.2526735982391983E-2</v>
-      </c>
-      <c r="G8" s="5">
-        <f>D8-VLOOKUP($B8,실측점!$A$2:$D$30,3,0)</f>
-        <v>-0.63331985508557409</v>
-      </c>
-      <c r="H8" s="6">
-        <f>E8-VLOOKUP($B8,실측점!$A$2:$D$30,4,0)</f>
-        <v>2.1823267705187277E-2</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.63512110430394364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="8">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4">
-        <v>205154.146112838</v>
-      </c>
-      <c r="D9" s="5">
-        <v>553720.54328126204</v>
-      </c>
-      <c r="E9" s="5">
-        <v>77.585150540932801</v>
-      </c>
-      <c r="F9" s="4">
-        <f>C9-VLOOKUP($B9,실측점!$A$2:$D$30,2,0)</f>
-        <v>-5.0187162007205188E-2</v>
-      </c>
-      <c r="G9" s="5">
-        <f>D9-VLOOKUP($B9,실측점!$A$2:$D$30,3,0)</f>
-        <v>-0.63271873793564737</v>
-      </c>
-      <c r="H9" s="6">
-        <f>E9-VLOOKUP($B9,실측점!$A$2:$D$30,4,0)</f>
-        <v>2.618054093279909E-2</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.63524575818241391</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>2</v>
-      </c>
-      <c r="B10" s="8">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4">
-        <v>205154.060629215</v>
-      </c>
-      <c r="D10" s="5">
-        <v>553719.267470552</v>
-      </c>
-      <c r="E10" s="5">
-        <v>77.596531131741401</v>
-      </c>
-      <c r="F10" s="4">
-        <f>C10-VLOOKUP($B10,실측점!$A$2:$D$30,2,0)</f>
-        <v>-5.6370784994214773E-2</v>
-      </c>
-      <c r="G10" s="5">
-        <f>D10-VLOOKUP($B10,실측점!$A$2:$D$30,3,0)</f>
-        <v>-0.71192944794893265</v>
-      </c>
-      <c r="H10" s="6">
-        <f>E10-VLOOKUP($B10,실측점!$A$2:$D$30,4,0)</f>
-        <v>3.2761131741395388E-2</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.71490873264404387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F11">
-        <f>SQRT(SUMSQ(F2:F10)/COUNT(F2:F10))</f>
-        <v>4.7315433380040586E-2</v>
-      </c>
-      <c r="G11">
-        <f>SQRT(SUMSQ(G2:G10)/COUNT(G2:G10))</f>
-        <v>0.653841150539482</v>
-      </c>
-      <c r="H11" s="6">
-        <f>SQRT(SUMSQ(H2:H10)/COUNT(H2:H10))</f>
-        <v>6.3522263675609758E-2</v>
-      </c>
-      <c r="I11">
-        <f>SQRT(SUMSQ(I2:I10)/COUNT(I2:I10))</f>
-        <v>0.65862134672147421</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1">
-        <v>205154.187163889</v>
-      </c>
-      <c r="D2" s="2">
-        <v>553721.25959400705</v>
-      </c>
-      <c r="E2" s="2">
-        <v>78.797362730565098</v>
-      </c>
-      <c r="F2" s="1">
-        <f>C2-VLOOKUP($B2,실측점!$A$2:$D$30,2,0)</f>
-        <v>1.963888993486762E-3</v>
-      </c>
-      <c r="G2" s="2">
-        <f>D2-VLOOKUP($B2,실측점!$A$2:$D$30,3,0)</f>
-        <v>8.9594007004052401E-2</v>
-      </c>
-      <c r="H2" s="3">
-        <f>E2-VLOOKUP($B2,실측점!$A$2:$D$30,4,0)</f>
-        <v>5.2682730565095426E-2</v>
-      </c>
-      <c r="I2" s="3">
-        <f>SQRT(SUMSQ(F2:H2))</f>
-        <v>0.10395389868021002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4">
-        <v>205154.153808278</v>
-      </c>
-      <c r="D3" s="5">
-        <v>553720.76122136298</v>
-      </c>
-      <c r="E3" s="5">
-        <v>78.795308805985897</v>
-      </c>
-      <c r="F3" s="4">
-        <f>C3-VLOOKUP($B3,실측점!$A$2:$D$30,2,0)</f>
-        <v>1.7082779959309846E-3</v>
-      </c>
-      <c r="G3" s="5">
-        <f>D3-VLOOKUP($B3,실측점!$A$2:$D$30,3,0)</f>
-        <v>8.5221362998709083E-2</v>
-      </c>
-      <c r="H3" s="6">
-        <f>E3-VLOOKUP($B3,실측점!$A$2:$D$30,4,0)</f>
-        <v>4.652880598590059E-2</v>
-      </c>
-      <c r="I3" s="6">
-        <f t="shared" ref="I3:I10" si="0">SQRT(SUMSQ(F3:H3))</f>
-        <v>9.711090933331179E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4">
-        <v>205154.12679641001</v>
-      </c>
-      <c r="D4" s="5">
-        <v>553720.35831488401</v>
-      </c>
-      <c r="E4" s="5">
-        <v>78.801670833593803</v>
-      </c>
-      <c r="F4" s="4">
-        <f>C4-VLOOKUP($B4,실측점!$A$2:$D$30,2,0)</f>
-        <v>5.1964099984616041E-3</v>
-      </c>
-      <c r="G4" s="5">
-        <f>D4-VLOOKUP($B4,실측점!$A$2:$D$30,3,0)</f>
-        <v>8.331488398835063E-2</v>
-      </c>
-      <c r="H4" s="6">
-        <f>E4-VLOOKUP($B4,실측점!$A$2:$D$30,4,0)</f>
-        <v>5.3230833593801208E-2</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" si="0"/>
-        <v>9.9004516139191298E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4">
-        <v>205154.23079229699</v>
-      </c>
-      <c r="D5" s="5">
-        <v>553721.85928365903</v>
-      </c>
-      <c r="E5" s="5">
-        <v>78.187096373384804</v>
-      </c>
-      <c r="F5" s="4">
-        <f>C5-VLOOKUP($B5,실측점!$A$2:$D$30,2,0)</f>
-        <v>3.9922969881445169E-3</v>
-      </c>
-      <c r="G5" s="5">
-        <f>D5-VLOOKUP($B5,실측점!$A$2:$D$30,3,0)</f>
-        <v>8.5883659077808261E-2</v>
-      </c>
-      <c r="H5" s="6">
-        <f>E5-VLOOKUP($B5,실측점!$A$2:$D$30,4,0)</f>
-        <v>4.9006373384798962E-2</v>
-      </c>
-      <c r="I5" s="6">
-        <f t="shared" si="0"/>
-        <v>9.8962447242199297E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4">
-        <v>205154.15715473201</v>
-      </c>
-      <c r="D6" s="5">
-        <v>553720.75986008497</v>
-      </c>
-      <c r="E6" s="5">
-        <v>78.192073436448794</v>
-      </c>
-      <c r="F6" s="4">
-        <f>C6-VLOOKUP($B6,실측점!$A$2:$D$30,2,0)</f>
-        <v>4.7547320136800408E-3</v>
-      </c>
-      <c r="G6" s="5">
-        <f>D6-VLOOKUP($B6,실측점!$A$2:$D$30,3,0)</f>
-        <v>8.3260084968060255E-2</v>
-      </c>
-      <c r="H6" s="6">
-        <f>E6-VLOOKUP($B6,실측점!$A$2:$D$30,4,0)</f>
-        <v>3.857343644880018E-2</v>
-      </c>
-      <c r="I6" s="6">
-        <f t="shared" si="0"/>
-        <v>9.1884488488972682E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4">
-        <v>205154.13053425</v>
-      </c>
-      <c r="D7" s="5">
-        <v>553720.36230257095</v>
-      </c>
-      <c r="E7" s="5">
-        <v>78.192599253632395</v>
-      </c>
-      <c r="F7" s="4">
-        <f>C7-VLOOKUP($B7,실측점!$A$2:$D$30,2,0)</f>
-        <v>4.134249989874661E-3</v>
-      </c>
-      <c r="G7" s="5">
-        <f>D7-VLOOKUP($B7,실측점!$A$2:$D$30,3,0)</f>
-        <v>9.6102570998482406E-2</v>
-      </c>
-      <c r="H7" s="6">
-        <f>E7-VLOOKUP($B7,실측점!$A$2:$D$30,4,0)</f>
-        <v>3.4399253632400928E-2</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.10215725537602983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>2</v>
-      </c>
-      <c r="B8" s="8">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4">
-        <v>205154.23427090701</v>
-      </c>
-      <c r="D8" s="5">
-        <v>553721.85974186799</v>
-      </c>
-      <c r="E8" s="5">
-        <v>77.582047042032201</v>
-      </c>
-      <c r="F8" s="4">
-        <f>C8-VLOOKUP($B8,실측점!$A$2:$D$30,2,0)</f>
-        <v>6.4709070138633251E-3</v>
-      </c>
-      <c r="G8" s="5">
-        <f>D8-VLOOKUP($B8,실측점!$A$2:$D$30,3,0)</f>
-        <v>9.8741867928765714E-2</v>
-      </c>
-      <c r="H8" s="6">
-        <f>E8-VLOOKUP($B8,실측점!$A$2:$D$30,4,0)</f>
-        <v>2.4587042032194972E-2</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.1019625017128199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="8">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4">
-        <v>205154.19396610599</v>
-      </c>
-      <c r="D9" s="5">
-        <v>553721.25800489297</v>
-      </c>
-      <c r="E9" s="5">
-        <v>77.585026975779897</v>
-      </c>
-      <c r="F9" s="4">
-        <f>C9-VLOOKUP($B9,실측점!$A$2:$D$30,2,0)</f>
-        <v>-2.3338940227404237E-3</v>
-      </c>
-      <c r="G9" s="5">
-        <f>D9-VLOOKUP($B9,실측점!$A$2:$D$30,3,0)</f>
-        <v>8.2004892989061773E-2</v>
-      </c>
-      <c r="H9" s="6">
-        <f>E9-VLOOKUP($B9,실측점!$A$2:$D$30,4,0)</f>
-        <v>2.6056975779894742E-2</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="0"/>
-        <v>8.6076800139473567E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>2</v>
-      </c>
-      <c r="B10" s="8">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4">
-        <v>205154.114196357</v>
-      </c>
-      <c r="D10" s="5">
-        <v>553720.06695607805</v>
-      </c>
-      <c r="E10" s="5">
-        <v>77.589590148259603</v>
-      </c>
-      <c r="F10" s="4">
-        <f>C10-VLOOKUP($B10,실측점!$A$2:$D$30,2,0)</f>
-        <v>-2.8036430012434721E-3</v>
-      </c>
-      <c r="G10" s="5">
-        <f>D10-VLOOKUP($B10,실측점!$A$2:$D$30,3,0)</f>
-        <v>8.7556078098714352E-2</v>
-      </c>
-      <c r="H10" s="6">
-        <f>E10-VLOOKUP($B10,실측점!$A$2:$D$30,4,0)</f>
-        <v>2.5820148259597886E-2</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="0"/>
-        <v>9.1326925286326174E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F11">
-        <f>SQRT(SUMSQ(F2:F10)/COUNT(F2:F10))</f>
-        <v>4.0082664342905557E-3</v>
-      </c>
-      <c r="G11">
-        <f>SQRT(SUMSQ(G2:G10)/COUNT(G2:G10))</f>
-        <v>8.813872352568225E-2</v>
-      </c>
-      <c r="H11" s="6">
-        <f>SQRT(SUMSQ(H2:H10)/COUNT(H2:H10))</f>
-        <v>4.054754889490135E-2</v>
-      </c>
-      <c r="I11">
-        <f>SQRT(SUMSQ(I2:I10)/COUNT(I2:I10))</f>
-        <v>9.7101001570165726E-2</v>
-      </c>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
